--- a/src/file/List Demo.xlsx
+++ b/src/file/List Demo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED40F1A-3D07-9444-B04E-A1E1D0E2FC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +64,22 @@
   </si>
   <si>
     <t>wangdc@dachui.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101199003076000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -161,6 +170,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -171,6 +184,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,9 +268,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,6 +320,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,23 +512,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="6" width="26.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="5" max="6" width="26.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="34.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,8 +551,11 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -522,12 +576,15 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -535,12 +592,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -548,12 +605,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
